--- a/PC2/Diff/DIFF/NaCl/Differenz_Spline_Linear_NaCl.xlsx
+++ b/PC2/Diff/DIFF/NaCl/Differenz_Spline_Linear_NaCl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49157\OneDrive\Desktop\Protokolle\PC2\Diff\DIFF\NaCl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B2B0FB-94F5-43E6-908B-95437FC1DB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8567FAD5-E395-4F3D-87A2-02AE841BD624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D97557AE-1E74-4622-A1F1-40C8E0AC9EC9}"/>
   </bookViews>
@@ -2130,7 +2130,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="C1" sqref="C1:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/PC2/Diff/DIFF/NaCl/Differenz_Spline_Linear_NaCl.xlsx
+++ b/PC2/Diff/DIFF/NaCl/Differenz_Spline_Linear_NaCl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49157\OneDrive\Desktop\Protokolle\PC2\Diff\DIFF\NaCl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8567FAD5-E395-4F3D-87A2-02AE841BD624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A4CE26-27CC-4946-A4E1-7128AE918836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D97557AE-1E74-4622-A1F1-40C8E0AC9EC9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D97557AE-1E74-4622-A1F1-40C8E0AC9EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Differenz_Spline_Linear_NaCl" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2127,15 +2149,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0236C72-0052-48D3-9D58-78EA57341E54}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G15"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2155,7 +2177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2176,8 +2198,15 @@
         <f>F2^-2</f>
         <v>1586.414345478642</v>
       </c>
+      <c r="H2" cm="1">
+        <f t="array" ref="H2:I6">LINEST(G2:G15, C2:C15, TRUE, TRUE)</f>
+        <v>8.9799868111826608</v>
+      </c>
+      <c r="I2">
+        <v>1909.2110350567746</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2198,8 +2227,14 @@
         <f t="shared" ref="G3:G15" si="1">F3^-2</f>
         <v>2371.334774876982</v>
       </c>
+      <c r="H3">
+        <v>0.18768303176934142</v>
+      </c>
+      <c r="I3">
+        <v>86.129949722591377</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2220,8 +2255,14 @@
         <f t="shared" si="1"/>
         <v>3038.2729750150152</v>
       </c>
+      <c r="H4">
+        <v>0.99478554009032705</v>
+      </c>
+      <c r="I4">
+        <v>169.85055142440305</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2242,8 +2283,14 @@
         <f t="shared" si="1"/>
         <v>3567.8270135277785</v>
       </c>
+      <c r="H5">
+        <v>2289.2929829491713</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2264,8 +2311,14 @@
         <f t="shared" si="1"/>
         <v>4233.8306733149093</v>
       </c>
+      <c r="H6">
+        <v>66044293.602662884</v>
+      </c>
+      <c r="I6">
+        <v>346190.51783008547</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2287,7 +2340,7 @@
         <v>4745.5832852223966</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2309,7 +2362,7 @@
         <v>5408.1441693504366</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2331,7 +2384,7 @@
         <v>5877.0410503557814</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2353,7 +2406,7 @@
         <v>6080.560482989632</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2375,7 +2428,7 @@
         <v>6597.8315183423756</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2397,7 +2450,7 @@
         <v>7338.841188947019</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2419,7 +2472,7 @@
         <v>7686.2952366988457</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2441,7 +2494,7 @@
         <v>8310.7991384492616</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>

--- a/PC2/Diff/DIFF/NaCl/Differenz_Spline_Linear_NaCl.xlsx
+++ b/PC2/Diff/DIFF/NaCl/Differenz_Spline_Linear_NaCl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49157\OneDrive\Desktop\Protokolle\PC2\Diff\DIFF\NaCl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A4CE26-27CC-4946-A4E1-7128AE918836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC06C88-718B-435A-A892-846536AF2366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D97557AE-1E74-4622-A1F1-40C8E0AC9EC9}"/>
+    <workbookView minimized="1" xWindow="2920" yWindow="2920" windowWidth="14400" windowHeight="7360" xr2:uid="{D97557AE-1E74-4622-A1F1-40C8E0AC9EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Differenz_Spline_Linear_NaCl" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -2152,7 +2152,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2427,6 +2427,10 @@
         <f t="shared" si="1"/>
         <v>6597.8315183423756</v>
       </c>
+      <c r="H11">
+        <f>H3/H2</f>
+        <v>2.0900145592154119E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
